--- a/data_after_premodelling.xlsx
+++ b/data_after_premodelling.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LEGION\Downloads\LAPTOP\Mechine Learning\projek mini hackathon\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49E0203E-FB3A-4C7F-BFF1-B2371D3FB223}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -2161,8 +2167,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2225,6 +2231,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -2271,7 +2285,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2303,9 +2317,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2337,6 +2369,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2512,14 +2562,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C408"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A346" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="46.85546875" customWidth="1"/>
+    <col min="2" max="2" width="132.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2530,7 +2584,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -2541,7 +2595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -2552,7 +2606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -2563,7 +2617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -2574,7 +2628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -2585,7 +2639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -2596,7 +2650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -2607,7 +2661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -2618,7 +2672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -2629,7 +2683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -2640,7 +2694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -2651,7 +2705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -2662,7 +2716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -2673,7 +2727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -2684,7 +2738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -2695,7 +2749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -2706,7 +2760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -2717,7 +2771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -2728,7 +2782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -2739,7 +2793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -2750,7 +2804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>23</v>
       </c>
@@ -2761,7 +2815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>23</v>
       </c>
@@ -2772,7 +2826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>24</v>
       </c>
@@ -2783,7 +2837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>25</v>
       </c>
@@ -2794,7 +2848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -2805,7 +2859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -2816,7 +2870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>28</v>
       </c>
@@ -2827,7 +2881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>29</v>
       </c>
@@ -2838,7 +2892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>30</v>
       </c>
@@ -2849,7 +2903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>31</v>
       </c>
@@ -2860,7 +2914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>32</v>
       </c>
@@ -2871,7 +2925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>33</v>
       </c>
@@ -2882,7 +2936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>34</v>
       </c>
@@ -2893,7 +2947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>35</v>
       </c>
@@ -2904,7 +2958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>36</v>
       </c>
@@ -2915,7 +2969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>30</v>
       </c>
@@ -2926,7 +2980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -2937,7 +2991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>38</v>
       </c>
@@ -2948,7 +3002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>39</v>
       </c>
@@ -2959,7 +3013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>40</v>
       </c>
@@ -2970,7 +3024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>41</v>
       </c>
@@ -2981,7 +3035,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>42</v>
       </c>
@@ -2992,7 +3046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>43</v>
       </c>
@@ -3003,7 +3057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>44</v>
       </c>
@@ -3014,7 +3068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>45</v>
       </c>
@@ -3025,7 +3079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>46</v>
       </c>
@@ -3036,7 +3090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>47</v>
       </c>
@@ -3047,7 +3101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>48</v>
       </c>
@@ -3058,7 +3112,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>49</v>
       </c>
@@ -3069,7 +3123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>50</v>
       </c>
@@ -3080,7 +3134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>51</v>
       </c>
@@ -3091,7 +3145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>51</v>
       </c>
@@ -3102,7 +3156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>52</v>
       </c>
@@ -3113,7 +3167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>53</v>
       </c>
@@ -3124,7 +3178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>54</v>
       </c>
@@ -3135,7 +3189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>30</v>
       </c>
@@ -3146,7 +3200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>55</v>
       </c>
@@ -3157,7 +3211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>56</v>
       </c>
@@ -3168,7 +3222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>57</v>
       </c>
@@ -3179,7 +3233,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>58</v>
       </c>
@@ -3190,7 +3244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>59</v>
       </c>
@@ -3201,7 +3255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>60</v>
       </c>
@@ -3212,7 +3266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>61</v>
       </c>
@@ -3223,7 +3277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>62</v>
       </c>
@@ -3234,7 +3288,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>63</v>
       </c>
@@ -3245,7 +3299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>64</v>
       </c>
@@ -3256,7 +3310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>65</v>
       </c>
@@ -3267,7 +3321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>66</v>
       </c>
@@ -3278,7 +3332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>67</v>
       </c>
@@ -3289,7 +3343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>68</v>
       </c>
@@ -3300,7 +3354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>69</v>
       </c>
@@ -3311,7 +3365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>70</v>
       </c>
@@ -3322,7 +3376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>71</v>
       </c>
@@ -3333,7 +3387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>72</v>
       </c>
@@ -3344,7 +3398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>73</v>
       </c>
@@ -3355,7 +3409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>74</v>
       </c>
@@ -3366,7 +3420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>75</v>
       </c>
@@ -3377,7 +3431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>76</v>
       </c>
@@ -3388,7 +3442,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>30</v>
       </c>
@@ -3399,7 +3453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>77</v>
       </c>
@@ -3410,7 +3464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>78</v>
       </c>
@@ -3421,7 +3475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>79</v>
       </c>
@@ -3432,7 +3486,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>80</v>
       </c>
@@ -3443,7 +3497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>81</v>
       </c>
@@ -3454,7 +3508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>82</v>
       </c>
@@ -3465,7 +3519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>83</v>
       </c>
@@ -3476,7 +3530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>84</v>
       </c>
@@ -3487,7 +3541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>85</v>
       </c>
@@ -3498,7 +3552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>86</v>
       </c>
@@ -3509,7 +3563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>87</v>
       </c>
@@ -3520,7 +3574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>88</v>
       </c>
@@ -3531,7 +3585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>89</v>
       </c>
@@ -3542,7 +3596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>90</v>
       </c>
@@ -3553,7 +3607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>30</v>
       </c>
@@ -3564,7 +3618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>91</v>
       </c>
@@ -3575,7 +3629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>92</v>
       </c>
@@ -3586,7 +3640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>93</v>
       </c>
@@ -3597,7 +3651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>94</v>
       </c>
@@ -3608,7 +3662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>95</v>
       </c>
@@ -3619,7 +3673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>96</v>
       </c>
@@ -3630,7 +3684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>97</v>
       </c>
@@ -3641,7 +3695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>30</v>
       </c>
@@ -3652,7 +3706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>98</v>
       </c>
@@ -3663,7 +3717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>99</v>
       </c>
@@ -3674,7 +3728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>100</v>
       </c>
@@ -3685,7 +3739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:3">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>101</v>
       </c>
@@ -3696,7 +3750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:3">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>102</v>
       </c>
@@ -3707,7 +3761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:3">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>103</v>
       </c>
@@ -3718,7 +3772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:3">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>104</v>
       </c>
@@ -3729,7 +3783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:3">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>105</v>
       </c>
@@ -3740,7 +3794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:3">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>106</v>
       </c>
@@ -3751,7 +3805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:3">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>30</v>
       </c>
@@ -3762,7 +3816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:3">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>107</v>
       </c>
@@ -3773,7 +3827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:3">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>100</v>
       </c>
@@ -3784,7 +3838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:3">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>108</v>
       </c>
@@ -3795,7 +3849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:3">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>109</v>
       </c>
@@ -3806,7 +3860,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:3">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>110</v>
       </c>
@@ -3817,7 +3871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:3">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>30</v>
       </c>
@@ -3828,7 +3882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:3">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>110</v>
       </c>
@@ -3839,7 +3893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:3">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>111</v>
       </c>
@@ -3850,7 +3904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:3">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>112</v>
       </c>
@@ -3861,7 +3915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:3">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>113</v>
       </c>
@@ -3872,7 +3926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:3">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>114</v>
       </c>
@@ -3883,7 +3937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:3">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>115</v>
       </c>
@@ -3894,7 +3948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:3">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>114</v>
       </c>
@@ -3905,7 +3959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:3">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>116</v>
       </c>
@@ -3916,7 +3970,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="128" spans="1:3">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>117</v>
       </c>
@@ -3927,7 +3981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:3">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>118</v>
       </c>
@@ -3938,7 +3992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:3">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>119</v>
       </c>
@@ -3949,7 +4003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:3">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>120</v>
       </c>
@@ -3960,7 +4014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:3">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>121</v>
       </c>
@@ -3971,7 +4025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:3">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>122</v>
       </c>
@@ -3982,7 +4036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:3">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>123</v>
       </c>
@@ -3993,7 +4047,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="135" spans="1:3">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>124</v>
       </c>
@@ -4004,7 +4058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:3">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>125</v>
       </c>
@@ -4015,7 +4069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:3">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>126</v>
       </c>
@@ -4026,7 +4080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:3">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>127</v>
       </c>
@@ -4037,7 +4091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:3">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>128</v>
       </c>
@@ -4048,7 +4102,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="140" spans="1:3">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>129</v>
       </c>
@@ -4059,7 +4113,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="141" spans="1:3">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>130</v>
       </c>
@@ -4070,7 +4124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:3">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>30</v>
       </c>
@@ -4081,7 +4135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:3">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>130</v>
       </c>
@@ -4092,7 +4146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:3">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>30</v>
       </c>
@@ -4103,7 +4157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:3">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>131</v>
       </c>
@@ -4114,7 +4168,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="146" spans="1:3">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>30</v>
       </c>
@@ -4125,7 +4179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:3">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>132</v>
       </c>
@@ -4136,7 +4190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:3">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>133</v>
       </c>
@@ -4147,7 +4201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:3">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>134</v>
       </c>
@@ -4158,7 +4212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:3">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>30</v>
       </c>
@@ -4169,7 +4223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:3">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>135</v>
       </c>
@@ -4180,7 +4234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:3">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>30</v>
       </c>
@@ -4191,7 +4245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:3">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>135</v>
       </c>
@@ -4202,7 +4256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:3">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>136</v>
       </c>
@@ -4213,7 +4267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:3">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>137</v>
       </c>
@@ -4224,7 +4278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:3">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>138</v>
       </c>
@@ -4235,7 +4289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:3">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>139</v>
       </c>
@@ -4246,7 +4300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:3">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>140</v>
       </c>
@@ -4257,7 +4311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:3">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>30</v>
       </c>
@@ -4268,7 +4322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:3">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>141</v>
       </c>
@@ -4279,7 +4333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:3">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>30</v>
       </c>
@@ -4290,7 +4344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:3">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>142</v>
       </c>
@@ -4301,7 +4355,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:3">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>143</v>
       </c>
@@ -4312,7 +4366,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:3">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>144</v>
       </c>
@@ -4323,7 +4377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:3">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>30</v>
       </c>
@@ -4334,7 +4388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:3">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>144</v>
       </c>
@@ -4345,7 +4399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:3">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>145</v>
       </c>
@@ -4356,7 +4410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:3">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>146</v>
       </c>
@@ -4367,7 +4421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:3">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>146</v>
       </c>
@@ -4378,7 +4432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:3">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>146</v>
       </c>
@@ -4389,7 +4443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:3">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>146</v>
       </c>
@@ -4400,7 +4454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:3">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>147</v>
       </c>
@@ -4411,7 +4465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:3">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>148</v>
       </c>
@@ -4422,7 +4476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:3">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>149</v>
       </c>
@@ -4433,7 +4487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:3">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>150</v>
       </c>
@@ -4444,7 +4498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:3">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>151</v>
       </c>
@@ -4455,7 +4509,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="177" spans="1:3">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>58</v>
       </c>
@@ -4466,7 +4520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:3">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>152</v>
       </c>
@@ -4477,7 +4531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:3">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>153</v>
       </c>
@@ -4488,7 +4542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:3">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>154</v>
       </c>
@@ -4499,7 +4553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:3">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>155</v>
       </c>
@@ -4510,7 +4564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:3">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>30</v>
       </c>
@@ -4521,7 +4575,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:3">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>156</v>
       </c>
@@ -4532,7 +4586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:3">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>30</v>
       </c>
@@ -4543,7 +4597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:3">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>157</v>
       </c>
@@ -4554,7 +4608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:3">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>158</v>
       </c>
@@ -4565,7 +4619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:3">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>159</v>
       </c>
@@ -4576,7 +4630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:3">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>160</v>
       </c>
@@ -4587,7 +4641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:3">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>30</v>
       </c>
@@ -4598,7 +4652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:3">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>161</v>
       </c>
@@ -4609,7 +4663,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:3">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>162</v>
       </c>
@@ -4620,7 +4674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:3">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>30</v>
       </c>
@@ -4631,7 +4685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:3">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>163</v>
       </c>
@@ -4642,7 +4696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:3">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>164</v>
       </c>
@@ -4653,7 +4707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:3">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>30</v>
       </c>
@@ -4664,7 +4718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:3">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>165</v>
       </c>
@@ -4675,7 +4729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:3">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>166</v>
       </c>
@@ -4686,7 +4740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:3">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>30</v>
       </c>
@@ -4697,7 +4751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:3">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>165</v>
       </c>
@@ -4708,7 +4762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:3">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>167</v>
       </c>
@@ -4719,7 +4773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:3">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>168</v>
       </c>
@@ -4730,7 +4784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:3">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>169</v>
       </c>
@@ -4741,7 +4795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:3">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>30</v>
       </c>
@@ -4752,7 +4806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:3">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>170</v>
       </c>
@@ -4763,7 +4817,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:3">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>171</v>
       </c>
@@ -4774,7 +4828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:3">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>172</v>
       </c>
@@ -4785,7 +4839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:3">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>30</v>
       </c>
@@ -4796,7 +4850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:3">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>173</v>
       </c>
@@ -4807,7 +4861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:3">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>174</v>
       </c>
@@ -4818,7 +4872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:3">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>175</v>
       </c>
@@ -4829,7 +4883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:3">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>176</v>
       </c>
@@ -4840,7 +4894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:3">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>177</v>
       </c>
@@ -4851,7 +4905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:3">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>30</v>
       </c>
@@ -4862,7 +4916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:3">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>178</v>
       </c>
@@ -4873,7 +4927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:3">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>30</v>
       </c>
@@ -4884,7 +4938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:3">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>179</v>
       </c>
@@ -4895,7 +4949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:3">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>180</v>
       </c>
@@ -4906,7 +4960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:3">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>155</v>
       </c>
@@ -4917,7 +4971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:3">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>181</v>
       </c>
@@ -4928,7 +4982,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="220" spans="1:3">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>182</v>
       </c>
@@ -4939,7 +4993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:3">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>183</v>
       </c>
@@ -4950,7 +5004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:3">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>184</v>
       </c>
@@ -4961,7 +5015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:3">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>185</v>
       </c>
@@ -4972,7 +5026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:3">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>30</v>
       </c>
@@ -4983,7 +5037,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:3">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>186</v>
       </c>
@@ -4994,7 +5048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:3">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>187</v>
       </c>
@@ -5005,7 +5059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:3">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>30</v>
       </c>
@@ -5016,7 +5070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:3">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>188</v>
       </c>
@@ -5027,7 +5081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:3">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>189</v>
       </c>
@@ -5038,7 +5092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:3">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>30</v>
       </c>
@@ -5049,7 +5103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:3">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>190</v>
       </c>
@@ -5060,7 +5114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:3">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>30</v>
       </c>
@@ -5071,7 +5125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:3">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>191</v>
       </c>
@@ -5082,7 +5136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:3">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>192</v>
       </c>
@@ -5093,7 +5147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:3">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>193</v>
       </c>
@@ -5104,7 +5158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:3">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>194</v>
       </c>
@@ -5115,7 +5169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:3">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>195</v>
       </c>
@@ -5126,7 +5180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:3">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>196</v>
       </c>
@@ -5137,7 +5191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:3">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>197</v>
       </c>
@@ -5148,7 +5202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:3">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>198</v>
       </c>
@@ -5159,7 +5213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:3">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>30</v>
       </c>
@@ -5170,7 +5224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:3">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>199</v>
       </c>
@@ -5181,7 +5235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:3">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>200</v>
       </c>
@@ -5192,7 +5246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:3">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>201</v>
       </c>
@@ -5203,7 +5257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:3">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>30</v>
       </c>
@@ -5214,7 +5268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:3">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>202</v>
       </c>
@@ -5225,7 +5279,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="1:3">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>203</v>
       </c>
@@ -5236,7 +5290,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="248" spans="1:3">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>30</v>
       </c>
@@ -5247,7 +5301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:3">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>204</v>
       </c>
@@ -5258,7 +5312,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="250" spans="1:3">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>205</v>
       </c>
@@ -5269,7 +5323,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:3">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>206</v>
       </c>
@@ -5280,7 +5334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:3">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>207</v>
       </c>
@@ -5291,7 +5345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:3">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>204</v>
       </c>
@@ -5302,7 +5356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:3">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>208</v>
       </c>
@@ -5313,7 +5367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:3">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>209</v>
       </c>
@@ -5324,7 +5378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:3">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>210</v>
       </c>
@@ -5335,7 +5389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:3">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>211</v>
       </c>
@@ -5346,7 +5400,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="258" spans="1:3">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>212</v>
       </c>
@@ -5357,7 +5411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:3">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>213</v>
       </c>
@@ -5368,7 +5422,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="1:3">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>210</v>
       </c>
@@ -5379,7 +5433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:3">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>214</v>
       </c>
@@ -5390,7 +5444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:3">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>214</v>
       </c>
@@ -5401,7 +5455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:3">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>215</v>
       </c>
@@ -5412,7 +5466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:3">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>30</v>
       </c>
@@ -5423,7 +5477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:3">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>216</v>
       </c>
@@ -5434,7 +5488,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="266" spans="1:3">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>217</v>
       </c>
@@ -5445,7 +5499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:3">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>30</v>
       </c>
@@ -5456,7 +5510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:3">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>218</v>
       </c>
@@ -5467,7 +5521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:3">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>219</v>
       </c>
@@ -5478,7 +5532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:3">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>30</v>
       </c>
@@ -5489,7 +5543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:3">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>220</v>
       </c>
@@ -5500,7 +5554,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="272" spans="1:3">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>221</v>
       </c>
@@ -5511,7 +5565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:3">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>222</v>
       </c>
@@ -5522,7 +5576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:3">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>30</v>
       </c>
@@ -5533,7 +5587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:3">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>223</v>
       </c>
@@ -5544,7 +5598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:3">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>224</v>
       </c>
@@ -5555,7 +5609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:3">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>30</v>
       </c>
@@ -5566,7 +5620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:3">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>225</v>
       </c>
@@ -5577,7 +5631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:3">
+    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>226</v>
       </c>
@@ -5588,7 +5642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:3">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>227</v>
       </c>
@@ -5599,7 +5653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:3">
+    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>228</v>
       </c>
@@ -5610,7 +5664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:3">
+    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>30</v>
       </c>
@@ -5621,7 +5675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="283" spans="1:3">
+    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>229</v>
       </c>
@@ -5632,7 +5686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="284" spans="1:3">
+    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>230</v>
       </c>
@@ -5643,7 +5697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:3">
+    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>231</v>
       </c>
@@ -5654,7 +5708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:3">
+    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>30</v>
       </c>
@@ -5665,7 +5719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:3">
+    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>232</v>
       </c>
@@ -5676,7 +5730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:3">
+    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>30</v>
       </c>
@@ -5687,7 +5741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:3">
+    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>233</v>
       </c>
@@ -5698,7 +5752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:3">
+    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>234</v>
       </c>
@@ -5709,7 +5763,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="291" spans="1:3">
+    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>179</v>
       </c>
@@ -5720,7 +5774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:3">
+    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>30</v>
       </c>
@@ -5731,7 +5785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="293" spans="1:3">
+    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>235</v>
       </c>
@@ -5742,7 +5796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:3">
+    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>236</v>
       </c>
@@ -5753,7 +5807,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="295" spans="1:3">
+    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>237</v>
       </c>
@@ -5764,7 +5818,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="296" spans="1:3">
+    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>238</v>
       </c>
@@ -5775,7 +5829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:3">
+    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>239</v>
       </c>
@@ -5786,7 +5840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:3">
+    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>240</v>
       </c>
@@ -5797,7 +5851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:3">
+    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>30</v>
       </c>
@@ -5808,7 +5862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:3">
+    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>240</v>
       </c>
@@ -5819,7 +5873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:3">
+    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>241</v>
       </c>
@@ -5830,7 +5884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:3">
+    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>242</v>
       </c>
@@ -5841,7 +5895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:3">
+    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>30</v>
       </c>
@@ -5852,7 +5906,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="304" spans="1:3">
+    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>243</v>
       </c>
@@ -5863,7 +5917,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="305" spans="1:3">
+    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>244</v>
       </c>
@@ -5874,7 +5928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:3">
+    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>30</v>
       </c>
@@ -5885,7 +5939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:3">
+    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>245</v>
       </c>
@@ -5896,7 +5950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:3">
+    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>30</v>
       </c>
@@ -5907,7 +5961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:3">
+    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>246</v>
       </c>
@@ -5918,7 +5972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:3">
+    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>247</v>
       </c>
@@ -5929,7 +5983,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="311" spans="1:3">
+    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>236</v>
       </c>
@@ -5940,7 +5994,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="312" spans="1:3">
+    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>248</v>
       </c>
@@ -5951,7 +6005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:3">
+    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>30</v>
       </c>
@@ -5962,7 +6016,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="314" spans="1:3">
+    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>249</v>
       </c>
@@ -5973,7 +6027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:3">
+    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>250</v>
       </c>
@@ -5984,7 +6038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:3">
+    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>251</v>
       </c>
@@ -5995,7 +6049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:3">
+    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>252</v>
       </c>
@@ -6006,7 +6060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:3">
+    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>253</v>
       </c>
@@ -6017,7 +6071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:3">
+    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>241</v>
       </c>
@@ -6028,7 +6082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:3">
+    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>253</v>
       </c>
@@ -6039,7 +6093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:3">
+    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>254</v>
       </c>
@@ -6050,7 +6104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:3">
+    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>30</v>
       </c>
@@ -6061,7 +6115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:3">
+    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>255</v>
       </c>
@@ -6072,7 +6126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:3">
+    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>256</v>
       </c>
@@ -6083,7 +6137,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="325" spans="1:3">
+    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>236</v>
       </c>
@@ -6094,7 +6148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:3">
+    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>222</v>
       </c>
@@ -6105,7 +6159,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="327" spans="1:3">
+    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>257</v>
       </c>
@@ -6116,7 +6170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:3">
+    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>258</v>
       </c>
@@ -6127,7 +6181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:3">
+    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>259</v>
       </c>
@@ -6138,7 +6192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:3">
+    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>260</v>
       </c>
@@ -6149,7 +6203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:3">
+    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>261</v>
       </c>
@@ -6160,7 +6214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:3">
+    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>262</v>
       </c>
@@ -6171,7 +6225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:3">
+    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>263</v>
       </c>
@@ -6182,7 +6236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:3">
+    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>264</v>
       </c>
@@ -6193,7 +6247,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="335" spans="1:3">
+    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>265</v>
       </c>
@@ -6204,7 +6258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:3">
+    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>266</v>
       </c>
@@ -6215,7 +6269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:3">
+    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>267</v>
       </c>
@@ -6226,7 +6280,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="338" spans="1:3">
+    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>268</v>
       </c>
@@ -6237,7 +6291,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="339" spans="1:3">
+    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>269</v>
       </c>
@@ -6248,7 +6302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:3">
+    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>270</v>
       </c>
@@ -6259,7 +6313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="341" spans="1:3">
+    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>154</v>
       </c>
@@ -6270,7 +6324,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="342" spans="1:3">
+    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>271</v>
       </c>
@@ -6281,7 +6335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:3">
+    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>272</v>
       </c>
@@ -6292,7 +6346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:3">
+    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>212</v>
       </c>
@@ -6303,7 +6357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="1:3">
+    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>273</v>
       </c>
@@ -6314,7 +6368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:3">
+    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>274</v>
       </c>
@@ -6325,7 +6379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="1:3">
+    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>30</v>
       </c>
@@ -6336,7 +6390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:3">
+    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>275</v>
       </c>
@@ -6347,7 +6401,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="349" spans="1:3">
+    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>30</v>
       </c>
@@ -6358,7 +6412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:3">
+    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>276</v>
       </c>
@@ -6369,7 +6423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:3">
+    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>30</v>
       </c>
@@ -6380,7 +6434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:3">
+    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>277</v>
       </c>
@@ -6391,7 +6445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="353" spans="1:3">
+    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>278</v>
       </c>
@@ -6402,7 +6456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:3">
+    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>30</v>
       </c>
@@ -6413,7 +6467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="355" spans="1:3">
+    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>115</v>
       </c>
@@ -6424,7 +6478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:3">
+    <row r="356" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>279</v>
       </c>
@@ -6435,7 +6489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="1:3">
+    <row r="357" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>280</v>
       </c>
@@ -6446,7 +6500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="358" spans="1:3">
+    <row r="358" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>30</v>
       </c>
@@ -6457,7 +6511,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="359" spans="1:3">
+    <row r="359" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>281</v>
       </c>
@@ -6468,7 +6522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="1:3">
+    <row r="360" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>282</v>
       </c>
@@ -6479,7 +6533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="1:3">
+    <row r="361" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>30</v>
       </c>
@@ -6490,7 +6544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:3">
+    <row r="362" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>283</v>
       </c>
@@ -6501,7 +6555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="1:3">
+    <row r="363" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>284</v>
       </c>
@@ -6512,7 +6566,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="364" spans="1:3">
+    <row r="364" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>30</v>
       </c>
@@ -6523,7 +6577,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="365" spans="1:3">
+    <row r="365" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>285</v>
       </c>
@@ -6534,7 +6588,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="366" spans="1:3">
+    <row r="366" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>286</v>
       </c>
@@ -6545,7 +6599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="1:3">
+    <row r="367" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>58</v>
       </c>
@@ -6556,7 +6610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="1:3">
+    <row r="368" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>287</v>
       </c>
@@ -6567,7 +6621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="1:3">
+    <row r="369" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>288</v>
       </c>
@@ -6578,7 +6632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="1:3">
+    <row r="370" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>30</v>
       </c>
@@ -6589,7 +6643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="1:3">
+    <row r="371" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>289</v>
       </c>
@@ -6600,7 +6654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="372" spans="1:3">
+    <row r="372" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>290</v>
       </c>
@@ -6611,7 +6665,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="373" spans="1:3">
+    <row r="373" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>30</v>
       </c>
@@ -6622,7 +6676,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="374" spans="1:3">
+    <row r="374" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>291</v>
       </c>
@@ -6633,7 +6687,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="375" spans="1:3">
+    <row r="375" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>292</v>
       </c>
@@ -6644,7 +6698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="1:3">
+    <row r="376" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>30</v>
       </c>
@@ -6655,7 +6709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="1:3">
+    <row r="377" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>293</v>
       </c>
@@ -6666,7 +6720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="1:3">
+    <row r="378" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>30</v>
       </c>
@@ -6677,7 +6731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="1:3">
+    <row r="379" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>293</v>
       </c>
@@ -6688,7 +6742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="1:3">
+    <row r="380" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>294</v>
       </c>
@@ -6699,7 +6753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="1:3">
+    <row r="381" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>295</v>
       </c>
@@ -6710,7 +6764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="1:3">
+    <row r="382" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>296</v>
       </c>
@@ -6721,7 +6775,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="383" spans="1:3">
+    <row r="383" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>297</v>
       </c>
@@ -6732,7 +6786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="1:3">
+    <row r="384" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>298</v>
       </c>
@@ -6743,7 +6797,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="385" spans="1:3">
+    <row r="385" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>30</v>
       </c>
@@ -6754,7 +6808,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="386" spans="1:3">
+    <row r="386" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>299</v>
       </c>
@@ -6765,7 +6819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="1:3">
+    <row r="387" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>30</v>
       </c>
@@ -6776,7 +6830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="1:3">
+    <row r="388" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>299</v>
       </c>
@@ -6787,7 +6841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="1:3">
+    <row r="389" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>300</v>
       </c>
@@ -6798,7 +6852,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="390" spans="1:3">
+    <row r="390" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>30</v>
       </c>
@@ -6809,7 +6863,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="391" spans="1:3">
+    <row r="391" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>301</v>
       </c>
@@ -6820,7 +6874,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="392" spans="1:3">
+    <row r="392" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>302</v>
       </c>
@@ -6831,7 +6885,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="393" spans="1:3">
+    <row r="393" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>255</v>
       </c>
@@ -6842,7 +6896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="394" spans="1:3">
+    <row r="394" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>303</v>
       </c>
@@ -6853,7 +6907,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="395" spans="1:3">
+    <row r="395" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>304</v>
       </c>
@@ -6864,7 +6918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="396" spans="1:3">
+    <row r="396" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>305</v>
       </c>
@@ -6875,7 +6929,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="397" spans="1:3">
+    <row r="397" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>306</v>
       </c>
@@ -6886,7 +6940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="398" spans="1:3">
+    <row r="398" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>307</v>
       </c>
@@ -6897,7 +6951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="1:3">
+    <row r="399" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>308</v>
       </c>
@@ -6908,7 +6962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="400" spans="1:3">
+    <row r="400" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>309</v>
       </c>
@@ -6919,7 +6973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="401" spans="1:3">
+    <row r="401" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>305</v>
       </c>
@@ -6930,7 +6984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="402" spans="1:3">
+    <row r="402" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>310</v>
       </c>
@@ -6941,7 +6995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="403" spans="1:3">
+    <row r="403" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>311</v>
       </c>
@@ -6952,7 +7006,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="404" spans="1:3">
+    <row r="404" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>312</v>
       </c>
@@ -6963,7 +7017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="405" spans="1:3">
+    <row r="405" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>313</v>
       </c>
@@ -6974,7 +7028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="406" spans="1:3">
+    <row r="406" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>30</v>
       </c>
@@ -6985,7 +7039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="407" spans="1:3">
+    <row r="407" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>314</v>
       </c>
@@ -6996,7 +7050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="408" spans="1:3">
+    <row r="408" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>315</v>
       </c>
